--- a/output/staterankings_tocombinedcandsparties.xlsx
+++ b/output/staterankings_tocombinedcandsparties.xlsx
@@ -396,13 +396,13 @@
         </is>
       </c>
       <c r="B2">
-        <v>24242478.82</v>
+        <v>14923643.8</v>
       </c>
       <c r="C2">
         <v>19618453</v>
       </c>
       <c r="D2">
-        <v>1235.697780044125</v>
+        <v>760.6942198755428</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -418,13 +418,13 @@
         </is>
       </c>
       <c r="B3">
-        <v>40052054.8</v>
+        <v>26431158.66</v>
       </c>
       <c r="C3">
         <v>39148760</v>
       </c>
       <c r="D3">
-        <v>1023.073394917234</v>
+        <v>675.1467648017459</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -440,13 +440,13 @@
         </is>
       </c>
       <c r="B4">
-        <v>492061.63</v>
+        <v>412361.63</v>
       </c>
       <c r="C4">
         <v>738516</v>
       </c>
       <c r="D4">
-        <v>666.2843188231534</v>
+        <v>558.3651945252371</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -458,243 +458,243 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RI</t>
+          <t>NJ</t>
         </is>
       </c>
       <c r="B5">
-        <v>701171</v>
+        <v>4339350.65</v>
       </c>
       <c r="C5">
-        <v>1056611</v>
+        <v>8881845</v>
       </c>
       <c r="D5">
-        <v>663.6037292816372</v>
+        <v>488.5641046426728</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NJ</t>
+          <t>FL</t>
         </is>
       </c>
       <c r="B6">
-        <v>4353750.65</v>
+        <v>6278758.97</v>
       </c>
       <c r="C6">
-        <v>8881845</v>
+        <v>20598139</v>
       </c>
       <c r="D6">
-        <v>490.1853894095202</v>
+        <v>304.8216622870639</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RI</t>
         </is>
       </c>
       <c r="B7">
-        <v>353929</v>
+        <v>317855</v>
       </c>
       <c r="C7">
-        <v>949495</v>
+        <v>1056611</v>
       </c>
       <c r="D7">
-        <v>372.7549908109048</v>
+        <v>300.82499614333</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>NV</t>
         </is>
       </c>
       <c r="B8">
-        <v>4342875.48</v>
+        <v>832020.29</v>
       </c>
       <c r="C8">
-        <v>12791181</v>
+        <v>2922849</v>
       </c>
       <c r="D8">
-        <v>339.5210715883076</v>
+        <v>284.6607163079585</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL</t>
+          <t>WA</t>
         </is>
       </c>
       <c r="B9">
-        <v>6278758.97</v>
+        <v>2025249.12</v>
       </c>
       <c r="C9">
-        <v>20598139</v>
+        <v>7294336</v>
       </c>
       <c r="D9">
-        <v>304.8216622870639</v>
+        <v>277.646809798726</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B10">
-        <v>1969385.56</v>
+        <v>238219</v>
       </c>
       <c r="C10">
-        <v>6830193</v>
+        <v>949495</v>
       </c>
       <c r="D10">
-        <v>288.3352725171895</v>
+        <v>250.8902100590314</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NV</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="B11">
-        <v>832020.29</v>
+        <v>2101776.64</v>
       </c>
       <c r="C11">
-        <v>2922849</v>
+        <v>8413774</v>
       </c>
       <c r="D11">
-        <v>284.6607163079585</v>
+        <v>249.8018891403549</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WA</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="B12">
-        <v>2037099.12</v>
+        <v>1396997.86</v>
       </c>
       <c r="C12">
-        <v>7294336</v>
+        <v>6830193</v>
       </c>
       <c r="D12">
-        <v>279.2713579412849</v>
+        <v>204.5327064696415</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="B13">
-        <v>2101776.64</v>
+        <v>2579650.08</v>
       </c>
       <c r="C13">
-        <v>8413774</v>
+        <v>12791181</v>
       </c>
       <c r="D13">
-        <v>249.8018891403549</v>
+        <v>201.6741128125699</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="B14">
-        <v>1026914.63</v>
+        <v>942407.51</v>
       </c>
       <c r="C14">
-        <v>6003435</v>
+        <v>5527358</v>
       </c>
       <c r="D14">
-        <v>171.0545096265721</v>
+        <v>170.49872832554</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="B15">
-        <v>942407.51</v>
+        <v>1017934.63</v>
       </c>
       <c r="C15">
-        <v>5527358</v>
+        <v>6003435</v>
       </c>
       <c r="D15">
-        <v>170.49872832554</v>
+        <v>169.5586993113109</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -722,67 +722,67 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MI</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="B17">
-        <v>1526255</v>
+        <v>1896057.56</v>
       </c>
       <c r="C17">
-        <v>9957488</v>
+        <v>12821497</v>
       </c>
       <c r="D17">
-        <v>153.2771116570766</v>
+        <v>147.8811374366036</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TX</t>
+          <t>MI</t>
         </is>
       </c>
       <c r="B18">
-        <v>4190338.02</v>
+        <v>1415030</v>
       </c>
       <c r="C18">
-        <v>27885195</v>
+        <v>9957488</v>
       </c>
       <c r="D18">
-        <v>150.2710674965694</v>
+        <v>142.1071258132573</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>TX</t>
         </is>
       </c>
       <c r="B19">
-        <v>1896057.56</v>
+        <v>3834138.02</v>
       </c>
       <c r="C19">
-        <v>12821497</v>
+        <v>27885195</v>
       </c>
       <c r="D19">
-        <v>147.8811374366036</v>
+        <v>137.4972640499735</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B21">
-        <v>127385.94</v>
+        <v>122385.94</v>
       </c>
       <c r="C21">
         <v>1422029</v>
       </c>
       <c r="D21">
-        <v>89.58040940093345</v>
+        <v>86.06430670541882</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -832,243 +832,243 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>WI</t>
         </is>
       </c>
       <c r="B22">
-        <v>316061.19</v>
+        <v>491294</v>
       </c>
       <c r="C22">
-        <v>3581504</v>
+        <v>5778394</v>
       </c>
       <c r="D22">
-        <v>88.24817450992656</v>
+        <v>85.02258586036189</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>WI</t>
+          <t>OK</t>
         </is>
       </c>
       <c r="B23">
-        <v>491294</v>
+        <v>323350</v>
       </c>
       <c r="C23">
-        <v>5778394</v>
+        <v>3918137</v>
       </c>
       <c r="D23">
-        <v>85.02258586036189</v>
+        <v>82.52646602198954</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NH</t>
         </is>
       </c>
       <c r="B24">
-        <v>323450</v>
+        <v>100345</v>
       </c>
       <c r="C24">
-        <v>3918137</v>
+        <v>1343622</v>
       </c>
       <c r="D24">
-        <v>82.55198835569047</v>
+        <v>74.68246277598908</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="B25">
-        <v>307280</v>
+        <v>243441.19</v>
       </c>
       <c r="C25">
-        <v>4081943</v>
+        <v>3581504</v>
       </c>
       <c r="D25">
-        <v>75.27787624667958</v>
+        <v>67.97177666142493</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>NH</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="B26">
-        <v>100345</v>
+        <v>340045</v>
       </c>
       <c r="C26">
-        <v>1343622</v>
+        <v>6090062</v>
       </c>
       <c r="D26">
-        <v>74.68246277598908</v>
+        <v>55.83604895976429</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
       <c r="F26">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="B27">
-        <v>437556</v>
+        <v>383107</v>
       </c>
       <c r="C27">
-        <v>6090062</v>
+        <v>6946685</v>
       </c>
       <c r="D27">
-        <v>71.84754440923589</v>
+        <v>55.14961452836857</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
       <c r="F27">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="B28">
-        <v>383107</v>
+        <v>266775.44</v>
       </c>
       <c r="C28">
-        <v>6946685</v>
+        <v>4864680</v>
       </c>
       <c r="D28">
-        <v>55.14961452836857</v>
+        <v>54.83925766956922</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
       <c r="F28">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="B29">
-        <v>266775.44</v>
+        <v>103557.51</v>
       </c>
       <c r="C29">
-        <v>4864680</v>
+        <v>1904760</v>
       </c>
       <c r="D29">
-        <v>54.83925766956922</v>
+        <v>54.36774711774712</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
       <c r="F29">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="B30">
-        <v>103557.51</v>
+        <v>49789.95</v>
       </c>
       <c r="C30">
-        <v>1904760</v>
+        <v>1041732</v>
       </c>
       <c r="D30">
-        <v>54.36774711774712</v>
+        <v>47.79535427537984</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
       <c r="F30">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="B31">
-        <v>49789.95</v>
+        <v>292786.13</v>
       </c>
       <c r="C31">
-        <v>1041732</v>
+        <v>6637426</v>
       </c>
       <c r="D31">
-        <v>47.79535427537984</v>
+        <v>44.11139649617186</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
       <c r="F31">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="B32">
-        <v>292786.13</v>
+        <v>173880</v>
       </c>
       <c r="C32">
-        <v>6637426</v>
+        <v>4081943</v>
       </c>
       <c r="D32">
-        <v>44.11139649617186</v>
+        <v>42.59736110964803</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
       <c r="F32">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="B33">
-        <v>99000</v>
+        <v>97000</v>
       </c>
       <c r="C33">
         <v>2908776</v>
       </c>
       <c r="D33">
-        <v>34.03493428163599</v>
+        <v>33.34735985170394</v>
       </c>
       <c r="E33">
         <v>32</v>
@@ -1184,45 +1184,45 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B38">
-        <v>67502.48</v>
+        <v>28675</v>
       </c>
       <c r="C38">
-        <v>3045350</v>
+        <v>1687809</v>
       </c>
       <c r="D38">
-        <v>22.16575434679101</v>
+        <v>16.98948162973417</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
       <c r="F38">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>UT</t>
         </is>
       </c>
       <c r="B39">
-        <v>28675</v>
+        <v>50402.48</v>
       </c>
       <c r="C39">
-        <v>1687809</v>
+        <v>3045350</v>
       </c>
       <c r="D39">
-        <v>16.98948162973417</v>
+        <v>16.5506362158701</v>
       </c>
       <c r="E39">
         <v>38</v>
       </c>
       <c r="F39">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40">
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="B46">
-        <v>6800</v>
+        <v>5800</v>
       </c>
       <c r="C46">
         <v>2092434</v>
       </c>
       <c r="D46">
-        <v>3.249803816990165</v>
+        <v>2.7718914909622</v>
       </c>
       <c r="E46">
         <v>45</v>
@@ -1386,13 +1386,13 @@
         </is>
       </c>
       <c r="B47">
-        <v>850</v>
+        <v>750</v>
       </c>
       <c r="C47">
         <v>624977</v>
       </c>
       <c r="D47">
-        <v>1.360050049841834</v>
+        <v>1.200044161625148</v>
       </c>
       <c r="E47">
         <v>46</v>

--- a/output/staterankings_tocombinedcandsparties.xlsx
+++ b/output/staterankings_tocombinedcandsparties.xlsx
@@ -864,7 +864,7 @@
         <v>3918137</v>
       </c>
       <c r="D23">
-        <v>82.52646602198954</v>
+        <v>82.52646602198953</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -996,7 +996,7 @@
         <v>1904760</v>
       </c>
       <c r="D29">
-        <v>54.36774711774712</v>
+        <v>54.36774711774711</v>
       </c>
       <c r="E29">
         <v>28</v>

--- a/output/staterankings_tocombinedcandsparties.xlsx
+++ b/output/staterankings_tocombinedcandsparties.xlsx
@@ -864,7 +864,7 @@
         <v>3918137</v>
       </c>
       <c r="D23">
-        <v>82.52646602198953</v>
+        <v>82.52646602198954</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -996,7 +996,7 @@
         <v>1904760</v>
       </c>
       <c r="D29">
-        <v>54.36774711774711</v>
+        <v>54.36774711774712</v>
       </c>
       <c r="E29">
         <v>28</v>
